--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859AFD87-48FE-4C60-B0C8-04DC92D786F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5811A6-27BC-4E0B-AAA0-493E96B167AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{161DB593-7B01-45C9-95BC-F72210912555}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="ST Pricing" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,13 +80,13 @@
     <t>Grid Electricity</t>
   </si>
   <si>
-    <t>Import Cost (£/kWh)</t>
-  </si>
-  <si>
-    <t>Export Cost (£/kWh)</t>
-  </si>
-  <si>
     <t>CO2e Emissions (kgCO2e/kWh)</t>
+  </si>
+  <si>
+    <t>Import Price (£/kWh)</t>
+  </si>
+  <si>
+    <t>Export Price (£/kWh)</t>
   </si>
 </sst>
 </file>
@@ -523,15 +522,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,16 +539,16 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5811A6-27BC-4E0B-AAA0-493E96B167AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073BB99-B104-4044-B563-F55568356317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{161DB593-7B01-45C9-95BC-F72210912555}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{161DB593-7B01-45C9-95BC-F72210912555}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Number of Years</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Cost (£/kWp)</t>
   </si>
   <si>
-    <t>Cost (£/panel)</t>
-  </si>
-  <si>
-    <t>Electricity Cost (£/kWh)</t>
-  </si>
-  <si>
     <t>CCL (£/kWh)</t>
   </si>
   <si>
@@ -87,6 +81,9 @@
   </si>
   <si>
     <t>Export Price (£/kWh)</t>
+  </si>
+  <si>
+    <t>Cost (£/m2)</t>
   </si>
 </sst>
 </file>
@@ -451,10 +448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332ECE61-51AB-4B55-B931-273DEC8B2974}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +477,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -492,22 +489,6 @@
       </c>
       <c r="B4">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -521,7 +502,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -536,24 +517,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -654,8 +635,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -681,43 +662,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>950</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>900</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>870</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Financials.xlsx
+++ b/Financials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073BB99-B104-4044-B563-F55568356317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73457454-1228-4D8E-8BFD-040C45FAB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{161DB593-7B01-45C9-95BC-F72210912555}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{161DB593-7B01-45C9-95BC-F72210912555}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Number of Years</t>
   </si>
@@ -65,9 +65,6 @@
     <t>CCL (£/kWh)</t>
   </si>
   <si>
-    <t>Solar Degradation (%/year)</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Cost (£/m2)</t>
+  </si>
+  <si>
+    <t>ST Degradation (%/year)</t>
+  </si>
+  <si>
+    <t>PV Degradation (%/year)</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332ECE61-51AB-4B55-B931-273DEC8B2974}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +480,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -485,9 +488,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5</v>
       </c>
     </row>
@@ -502,7 +513,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -517,24 +528,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -635,8 +646,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
